--- a/scraper/top_remaining_spreadsheets_states/top_remaining_PA.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_PA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>STATE</t>
   </si>
@@ -44,33 +44,33 @@
     <t>Icy Hot 7s</t>
   </si>
   <si>
-    <t>2019-03-07</t>
+    <t>2019-03-12</t>
   </si>
   <si>
     <t>Reindeer Games</t>
   </si>
   <si>
+    <t>EZ Bucks</t>
+  </si>
+  <si>
     <t>Lucky Win</t>
   </si>
   <si>
     <t>2019-02-26</t>
   </si>
   <si>
-    <t>EZ Bucks</t>
-  </si>
-  <si>
     <t>Match 3 Tripler</t>
   </si>
   <si>
     <t>Double Frenzy</t>
   </si>
   <si>
+    <t>Goat Load of Cash</t>
+  </si>
+  <si>
     <t>Money Mania</t>
   </si>
   <si>
-    <t>Goat Load of Cash</t>
-  </si>
-  <si>
     <t>7-11-21®</t>
   </si>
   <si>
@@ -86,21 +86,21 @@
     <t>Cupid's Cash</t>
   </si>
   <si>
+    <t>Frosty the Doughman</t>
+  </si>
+  <si>
+    <t>Clover Ca$h</t>
+  </si>
+  <si>
     <t>It Takes 2</t>
   </si>
   <si>
-    <t>Frosty the Doughman</t>
+    <t>Joker's Wild</t>
   </si>
   <si>
     <t>Double Match</t>
   </si>
   <si>
-    <t>Clover Ca$h</t>
-  </si>
-  <si>
-    <t>Joker's Wild</t>
-  </si>
-  <si>
     <t>$50 Cash Bla$t</t>
   </si>
   <si>
@@ -213,12 +213,6 @@
   </si>
   <si>
     <t>2019-02-14</t>
-  </si>
-  <si>
-    <t>Money Tree</t>
-  </si>
-  <si>
-    <t>2019-02-08</t>
   </si>
   <si>
     <t>$20.00 Games</t>
@@ -596,7 +590,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,13 +669,13 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>1351</v>
+        <v>1390</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -692,16 +686,16 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>1351</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
         <v>13</v>
-      </c>
-      <c r="D5">
-        <v>1390</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -755,13 +749,13 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>1345</v>
+        <v>1360</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -775,13 +769,13 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>1360</v>
+        <v>1345</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -875,13 +869,13 @@
         <v>23</v>
       </c>
       <c r="D14">
-        <v>1350</v>
+        <v>1371</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -895,10 +889,10 @@
         <v>24</v>
       </c>
       <c r="D15">
-        <v>1371</v>
+        <v>1384</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -915,13 +909,13 @@
         <v>25</v>
       </c>
       <c r="D16">
-        <v>1339</v>
+        <v>1350</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -935,10 +929,10 @@
         <v>26</v>
       </c>
       <c r="D17">
-        <v>1384</v>
+        <v>1359</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -955,13 +949,13 @@
         <v>27</v>
       </c>
       <c r="D18">
-        <v>1359</v>
+        <v>1339</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1001,7 +995,7 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1021,7 +1015,7 @@
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1649,19 +1643,19 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D53">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1669,13 +1663,13 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" t="s">
         <v>68</v>
       </c>
-      <c r="C54" t="s">
-        <v>69</v>
-      </c>
       <c r="D54">
-        <v>1367</v>
+        <v>1356</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -1689,16 +1683,16 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D55">
-        <v>1356</v>
+        <v>1386</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1709,16 +1703,16 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D56">
-        <v>1386</v>
+        <v>1346</v>
       </c>
       <c r="E56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -1729,16 +1723,16 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D57">
-        <v>1346</v>
+        <v>1377</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -1749,19 +1743,19 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58">
+        <v>1325</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
         <v>73</v>
-      </c>
-      <c r="D58">
-        <v>1377</v>
-      </c>
-      <c r="E58">
-        <v>3</v>
-      </c>
-      <c r="F58" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1769,19 +1763,19 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C59" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D59">
-        <v>1325</v>
+        <v>1188</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1789,16 +1783,16 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s">
         <v>76</v>
       </c>
-      <c r="C60" t="s">
-        <v>77</v>
-      </c>
       <c r="D60">
-        <v>1188</v>
+        <v>1311</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -1809,16 +1803,16 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D61">
-        <v>1311</v>
+        <v>1341</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -1829,38 +1823,18 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D62">
-        <v>1341</v>
+        <v>1373</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" t="s">
-        <v>80</v>
-      </c>
-      <c r="D63">
-        <v>1373</v>
-      </c>
-      <c r="E63">
-        <v>3</v>
-      </c>
-      <c r="F63" t="s">
         <v>9</v>
       </c>
     </row>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_PA.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_PA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
     <t>STATE</t>
   </si>
@@ -44,22 +44,22 @@
     <t>Icy Hot 7s</t>
   </si>
   <si>
-    <t>2019-03-12</t>
+    <t>2019-04-11</t>
+  </si>
+  <si>
+    <t>EZ Bucks</t>
+  </si>
+  <si>
+    <t>Match 3 Tripler</t>
   </si>
   <si>
     <t>Reindeer Games</t>
   </si>
   <si>
-    <t>EZ Bucks</t>
-  </si>
-  <si>
-    <t>Lucky Win</t>
-  </si>
-  <si>
-    <t>2019-02-26</t>
-  </si>
-  <si>
-    <t>Match 3 Tripler</t>
+    <t>Wild Numbers 5X</t>
+  </si>
+  <si>
+    <t>7-11-21®</t>
   </si>
   <si>
     <t>Double Frenzy</t>
@@ -68,184 +68,169 @@
     <t>Goat Load of Cash</t>
   </si>
   <si>
-    <t>Money Mania</t>
-  </si>
-  <si>
-    <t>7-11-21®</t>
-  </si>
-  <si>
     <t>$2.00 Games</t>
   </si>
   <si>
     <t>Red Ball Tripler</t>
   </si>
   <si>
+    <t>Cupid's Cash</t>
+  </si>
+  <si>
+    <t>Wild Numbers 10X</t>
+  </si>
+  <si>
     <t>Whole Lotta $20s</t>
   </si>
   <si>
-    <t>Cupid's Cash</t>
-  </si>
-  <si>
     <t>Frosty the Doughman</t>
   </si>
   <si>
     <t>Clover Ca$h</t>
   </si>
   <si>
-    <t>It Takes 2</t>
+    <t>$50 Cash Bla$t</t>
   </si>
   <si>
     <t>Joker's Wild</t>
   </si>
   <si>
-    <t>Double Match</t>
-  </si>
-  <si>
-    <t>$50 Cash Bla$t</t>
-  </si>
-  <si>
-    <t>Spooky Cash</t>
-  </si>
-  <si>
-    <t>Struck by Luck</t>
-  </si>
-  <si>
     <t>$3.00 Games</t>
   </si>
   <si>
+    <t>Twisted</t>
+  </si>
+  <si>
     <t>Cash Adventure</t>
   </si>
   <si>
-    <t>Twisted</t>
+    <t>Sleigh Bell$</t>
+  </si>
+  <si>
+    <t>Extreme 8s</t>
   </si>
   <si>
     <t>Bingo Boogie</t>
   </si>
   <si>
-    <t>Sleigh Bell$</t>
+    <t>Royal Riches</t>
   </si>
   <si>
     <t>Top Secret Crossword</t>
   </si>
   <si>
-    <t>Royal Riches</t>
-  </si>
-  <si>
-    <t>Extreme 8s</t>
-  </si>
-  <si>
     <t>Bingo</t>
   </si>
   <si>
     <t>$5.00 Games</t>
   </si>
   <si>
+    <t>Bingo Squared</t>
+  </si>
+  <si>
+    <t>Funky 5s</t>
+  </si>
+  <si>
+    <t>Cash Kringle</t>
+  </si>
+  <si>
     <t>Power Shot Multiplier</t>
   </si>
   <si>
-    <t>Cash Kringle</t>
+    <t>Go for the Green</t>
+  </si>
+  <si>
+    <t>Neon</t>
+  </si>
+  <si>
+    <t>Right on the Money</t>
+  </si>
+  <si>
+    <t>Ca$htastic Crossword</t>
+  </si>
+  <si>
+    <t>Wheel of Fortune ®</t>
+  </si>
+  <si>
+    <t>Wild Numbers 20X</t>
+  </si>
+  <si>
+    <t>Mother's Day</t>
+  </si>
+  <si>
+    <t>$500 Loaded</t>
   </si>
   <si>
     <t>Golden 777</t>
   </si>
   <si>
+    <t>Hot $100,000</t>
+  </si>
+  <si>
+    <t>Jackpot Party®</t>
+  </si>
+  <si>
+    <t>$5 MONOPOLY</t>
+  </si>
+  <si>
     <t>Win it All</t>
   </si>
   <si>
-    <t>Funky 5s</t>
-  </si>
-  <si>
-    <t>Hot $100,000</t>
-  </si>
-  <si>
-    <t>Neon</t>
-  </si>
-  <si>
-    <t>$5 MONOPOLY</t>
-  </si>
-  <si>
-    <t>Ca$htastic Crossword</t>
-  </si>
-  <si>
-    <t>Jackpot Party®</t>
-  </si>
-  <si>
-    <t>Right on the Money</t>
-  </si>
-  <si>
-    <t>Wheel of Fortune ®</t>
-  </si>
-  <si>
-    <t>$500 Loaded</t>
-  </si>
-  <si>
-    <t>Bingo Squared</t>
-  </si>
-  <si>
-    <t>Go for the Green</t>
-  </si>
-  <si>
     <t>Love to Win</t>
   </si>
   <si>
+    <t>2019-03-26</t>
+  </si>
+  <si>
     <t>$10.00 Games</t>
   </si>
   <si>
     <t>$300,000 Nest Egg®</t>
   </si>
   <si>
+    <t>$300,000 Bonus Crossword</t>
+  </si>
+  <si>
+    <t>Fantastic 10s</t>
+  </si>
+  <si>
+    <t>Win Win Win</t>
+  </si>
+  <si>
+    <t>Wild Numbers 50X</t>
+  </si>
+  <si>
+    <t>$300,000 Crossword Explosion</t>
+  </si>
+  <si>
     <t>Hit $1,000</t>
   </si>
   <si>
-    <t>$300,000 Bonus Crossword</t>
-  </si>
-  <si>
-    <t>Win Win Win</t>
-  </si>
-  <si>
-    <t>$300,000 Crossword Explosion</t>
-  </si>
-  <si>
-    <t>Fantastic 10s</t>
-  </si>
-  <si>
-    <t>50X the Bucks</t>
-  </si>
-  <si>
-    <t>2019-02-14</t>
-  </si>
-  <si>
     <t>$20.00 Games</t>
   </si>
   <si>
+    <t>Bonus Star Millions</t>
+  </si>
+  <si>
     <t>Merry Millionaire</t>
   </si>
   <si>
-    <t>Bonus Star Millions</t>
-  </si>
-  <si>
     <t>$1,000,000 Money Mania</t>
   </si>
   <si>
+    <t>$1,000,000 Cash Club</t>
+  </si>
+  <si>
     <t>Million Dollar Winner</t>
   </si>
   <si>
-    <t>$1,000,000 Cash Club</t>
-  </si>
-  <si>
-    <t>$1,000,000 Power Payday</t>
-  </si>
-  <si>
-    <t>2019-02-27</t>
-  </si>
-  <si>
     <t>$30.00 Games</t>
   </si>
   <si>
+    <t>$3 Million Mega Multiplier</t>
+  </si>
+  <si>
     <t>$3,000,000 Extreme Green</t>
-  </si>
-  <si>
-    <t>$3 Million Mega Multiplier</t>
   </si>
   <si>
     <t>$3,000,000 Pennsylvania Club</t>
@@ -590,7 +575,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,7 +617,7 @@
         <v>1376</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -649,10 +634,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>1372</v>
+        <v>1390</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -669,10 +654,10 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>1390</v>
+        <v>1355</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -689,13 +674,13 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>1351</v>
+        <v>1372</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -706,13 +691,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>1355</v>
+        <v>1395</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -726,13 +711,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>1385</v>
+        <v>1366</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -746,10 +731,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>1360</v>
+        <v>1385</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -766,16 +751,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>1345</v>
+        <v>1360</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -783,16 +768,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10">
-        <v>1366</v>
+        <v>1389</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -803,16 +788,16 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
       <c r="D11">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -823,16 +808,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>1364</v>
+        <v>1394</v>
       </c>
       <c r="E12">
-        <v>411860</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -843,16 +828,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>1381</v>
+        <v>1364</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>358509</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -863,10 +848,10 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>1371</v>
@@ -883,16 +868,16 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15">
         <v>1384</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -903,19 +888,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -923,16 +908,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17">
         <v>1359</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -943,19 +928,19 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
       </c>
       <c r="D18">
-        <v>1339</v>
+        <v>1349</v>
       </c>
       <c r="E18">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -963,16 +948,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
       </c>
       <c r="D19">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -983,19 +968,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
       </c>
       <c r="D20">
-        <v>1365</v>
+        <v>1370</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1003,19 +988,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
       </c>
       <c r="D21">
-        <v>1354</v>
+        <v>1328</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1023,16 +1008,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="s">
-        <v>32</v>
-      </c>
       <c r="D22">
-        <v>1338</v>
+        <v>1388</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1043,16 +1028,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>1349</v>
+        <v>1380</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1063,16 +1048,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24">
-        <v>1388</v>
+        <v>1358</v>
       </c>
       <c r="E24">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1083,16 +1068,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25">
-        <v>1370</v>
+        <v>1317</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1103,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
       </c>
       <c r="D26">
-        <v>1358</v>
+        <v>1326</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1123,16 +1108,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
       </c>
       <c r="D27">
-        <v>1380</v>
+        <v>1343</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1143,16 +1128,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
       </c>
       <c r="D28">
-        <v>1328</v>
+        <v>1369</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1163,16 +1148,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
       </c>
       <c r="D29">
-        <v>1317</v>
+        <v>1375</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1183,16 +1168,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
         <v>40</v>
       </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
       <c r="D30">
-        <v>1375</v>
+        <v>1383</v>
       </c>
       <c r="E30">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1203,16 +1188,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31">
-        <v>1369</v>
+        <v>1353</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1223,16 +1208,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32">
-        <v>1387</v>
+        <v>1347</v>
       </c>
       <c r="E32">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1243,13 +1228,13 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33">
-        <v>1337</v>
+        <v>1348</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -1263,16 +1248,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34">
-        <v>1343</v>
+        <v>1357</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1283,16 +1268,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35">
-        <v>1362</v>
+        <v>1392</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1303,16 +1288,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36">
-        <v>1353</v>
+        <v>1393</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1323,16 +1308,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37">
-        <v>1332</v>
+        <v>1378</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1343,16 +1328,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38">
-        <v>1348</v>
+        <v>1387</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1363,16 +1348,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39">
-        <v>1315</v>
+        <v>1362</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -1383,16 +1368,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40">
-        <v>1347</v>
+        <v>1315</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1403,16 +1388,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D41">
-        <v>1357</v>
+        <v>1332</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1423,16 +1408,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42">
-        <v>1378</v>
+        <v>1337</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1443,19 +1428,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43">
+        <v>1379</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
         <v>54</v>
-      </c>
-      <c r="D43">
-        <v>1326</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1463,16 +1448,16 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D44">
-        <v>1383</v>
+        <v>1342</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -1483,13 +1468,13 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D45">
-        <v>1379</v>
+        <v>1312</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1503,16 +1488,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
         <v>58</v>
       </c>
       <c r="D46">
-        <v>1342</v>
+        <v>1382</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -1523,16 +1508,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
         <v>59</v>
       </c>
       <c r="D47">
-        <v>1352</v>
+        <v>1361</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -1543,16 +1528,16 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
         <v>60</v>
       </c>
       <c r="D48">
-        <v>1312</v>
+        <v>1391</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -1563,13 +1548,13 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
         <v>61</v>
       </c>
       <c r="D49">
-        <v>1361</v>
+        <v>1374</v>
       </c>
       <c r="E49">
         <v>5</v>
@@ -1583,16 +1568,16 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
         <v>62</v>
       </c>
       <c r="D50">
-        <v>1374</v>
+        <v>1352</v>
       </c>
       <c r="E50">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1603,16 +1588,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D51">
-        <v>1382</v>
+        <v>1356</v>
       </c>
       <c r="E51">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1623,19 +1608,19 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D52">
-        <v>1320</v>
+        <v>1367</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1643,16 +1628,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" t="s">
         <v>66</v>
       </c>
-      <c r="C53" t="s">
-        <v>67</v>
-      </c>
       <c r="D53">
-        <v>1367</v>
+        <v>1386</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1663,13 +1648,13 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D54">
-        <v>1356</v>
+        <v>1377</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -1683,16 +1668,16 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D55">
-        <v>1386</v>
+        <v>1346</v>
       </c>
       <c r="E55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1703,13 +1688,13 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
         <v>70</v>
       </c>
       <c r="D56">
-        <v>1346</v>
+        <v>1311</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -1723,16 +1708,16 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
         <v>71</v>
       </c>
       <c r="D57">
-        <v>1377</v>
+        <v>1188</v>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -1743,19 +1728,19 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C58" t="s">
         <v>72</v>
       </c>
       <c r="D58">
-        <v>1325</v>
+        <v>1341</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1763,78 +1748,18 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D59">
-        <v>1188</v>
+        <v>1373</v>
       </c>
       <c r="E59">
         <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" t="s">
-        <v>76</v>
-      </c>
-      <c r="D60">
-        <v>1311</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" t="s">
-        <v>77</v>
-      </c>
-      <c r="D61">
-        <v>1341</v>
-      </c>
-      <c r="E61">
-        <v>2</v>
-      </c>
-      <c r="F61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62">
-        <v>1373</v>
-      </c>
-      <c r="E62">
-        <v>3</v>
-      </c>
-      <c r="F62" t="s">
         <v>9</v>
       </c>
     </row>
